--- a/atcoder_record.xlsx
+++ b/atcoder_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuro/Desktop/github/variousFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7D876E-343D-5648-B6EA-11E0074C39C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ECDF6C5-F8FC-4656-B66C-016CA1D0BCAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>アリ本 atcoder</t>
     <phoneticPr fontId="1"/>
@@ -86,6 +86,215 @@
   </si>
   <si>
     <t>C - Otoshidama ABC085</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解けた</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - たくさんの数式 / Many Formulas ABC061</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit全探索</t>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - Train Ticket ABC79</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - All Green ABC104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dp[i][j] : i番目までの問題をj問解いた時の最大獲得点数　で動的計画法</t>
+    <rPh sb="12" eb="14">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ケイカクホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A - 高橋君とお肉 ARC029</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit全探索で１が立っていれば肉焼き機Aで０であればBで焼いてその最小時間を出力</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - 派閥</t>
+    <rPh sb="4" eb="6">
+      <t>ハバツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit全探索で１が立っている者同士を同じ派閥にして条件を満たしているかを確認</t>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハバツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A - 深さ優先探索 ATC001</t>
+    <rPh sb="4" eb="5">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再帰関数を用いたdfsとスタックを用いたdfsを学習</t>
+    <rPh sb="0" eb="2">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B - 埋め立て ARC031</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタックを用いたdfs　埋め立て地の候補は高々１００個だから全探索</t>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タカダカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -93,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,24 +682,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B463E-C599-7B47-BA2D-3487FF134AE3}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="69.109375" customWidth="1"/>
+    <col min="5" max="5" width="61.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -504,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,159 +742,221 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -693,5 +965,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/atcoder_record.xlsx
+++ b/atcoder_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuro/Desktop/github/variousFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ECDF6C5-F8FC-4656-B66C-016CA1D0BCAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA67E0-802D-BD4C-9615-640AD49BEEDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>アリ本 atcoder</t>
     <phoneticPr fontId="1"/>
@@ -294,6 +294,17 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How Many Islands? AOJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタックを用いたdfs 探索したところを海にする 8方向動けることを見落としてものすごく時間がかかった</t>
+    <rPh sb="0" eb="1">
+      <t>モチイタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,25 +693,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B463E-C599-7B47-BA2D-3487FF134AE3}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="69.109375" customWidth="1"/>
-    <col min="5" max="5" width="61.77734375" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -714,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -728,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -756,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -770,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -784,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -798,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -812,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -826,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -840,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -854,109 +865,117 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>

--- a/atcoder_record.xlsx
+++ b/atcoder_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuro/Desktop/github/variousFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA67E0-802D-BD4C-9615-640AD49BEEDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF3D3E48-274F-4ACB-9C0C-715C5F2D122D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7860" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>アリ本 atcoder</t>
     <phoneticPr fontId="1"/>
@@ -60,13 +60,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>解けた</t>
-    <rPh sb="0" eb="1">
-      <t>トケタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全探索で解ける</t>
     <rPh sb="0" eb="2">
       <t>ゼンタンサク</t>
@@ -89,13 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>解けた</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C - たくさんの数式 / Many Formulas ABC061</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,6 +291,307 @@
     <t>スタックを用いたdfs 探索したところを海にする 8方向動けることを見落としてものすごく時間がかかった</t>
     <rPh sb="0" eb="1">
       <t>モチイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B - バウムテスト ARC037</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回到達したノードに再度到達しようとしたときは閉路があるとき　探索はdfsを用いた</t>
+    <rPh sb="0" eb="2">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘイロ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - 幅優先探索 ABC007</t>
+    <rPh sb="4" eb="5">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E - チーズ JOI 2010 予選</t>
+    <rPh sb="17" eb="19">
+      <t>ヨセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - Grid Repainting ABC088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - 器物破損！高橋君 ARC005</t>
+    <rPh sb="4" eb="6">
+      <t>キブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハソン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タカハシクン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cup AOJ 0503</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューを用いたbfsを学習した</t>
+    <rPh sb="4" eb="5">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねずみの体力と同じ地点をゴールとしbfs、到着したらそこをスタートにしてまたbfs　これを繰り返す</t>
+    <rPh sb="4" eb="6">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bdfで最短経路を求め、その時に通る道以外を黒く塗ればよい、もともとゴールに到着できなければ-1を返す</t>
+    <rPh sb="4" eb="6">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り除く壁２個を全部試してみたらTLE、　reached[H][W][壁を壊した回数]で管理するとよい</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解いていない</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よくわからない。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - One-stroke Path ABC054</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - カード並べ 第９回JOI予選</t>
+    <rPh sb="7" eb="8">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.133 カードゲーム yukicoder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノードの個数が最大8だから、ノードの順列は高々8! = 43020　ノードのたどり方を全探索しても間に合う</t>
+    <rPh sb="4" eb="6">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュンレツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タカダカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10!が3628800だから全通り試す　setを使って重複を排除するようにしている</t>
+    <rPh sb="14" eb="15">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各プレイヤーの出す順番は4! = 24通りだから二人では24 * 24 = 576通り 全パターン試せばよい (next_permutation)</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>タメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -313,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,12 +617,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -367,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +668,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,24 +993,23 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="5" width="94.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,257 +1023,327 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>43408</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>43408</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>43409</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>43409</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>43409</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>43409</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>43409</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>43409</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>43409</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>43409</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>43409</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43410</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>

--- a/atcoder_record.xlsx
+++ b/atcoder_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF3D3E48-274F-4ACB-9C0C-715C5F2D122D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{219590AB-09C8-45C0-B14D-26A5C44E1000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7860" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>アリ本 atcoder</t>
     <phoneticPr fontId="1"/>
@@ -592,6 +592,137 @@
     </rPh>
     <rPh sb="49" eb="50">
       <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おつり JOI 2007 予選A</t>
+    <rPh sb="13" eb="15">
+      <t>ヨセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイン問題 AOJ Course</t>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A - 東京都 KUPC2015</t>
+    <rPh sb="4" eb="7">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D - Islands War ABC103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - Dubious Document2 ABC076</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B - 辞書式順序 ABC007</t>
+    <rPh sb="4" eb="6">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - Multiple Gift ABC083</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - 積み重ね ABC006</t>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - おいしいたこ焼きの売り方 ABC005</t>
+    <rPh sb="10" eb="11">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Easy TomekPhone SRM560 DIV1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - 2D Plane 2N Points ABC091</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C - Appleman and Toastman Codeforces263 DIV2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きい金額から払えるだけ払っていく greedy法</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最初dp[i][j] : i番目までのコインを使ってj円にするために必要な最小枚数でやってTLE, dp[i] = min(dp[i], dp[i - c[j]) で状態を減らせばよい </t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ヘ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -660,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,6 +805,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B463E-C599-7B47-BA2D-3487FF134AE3}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1001,7 +1135,8 @@
     <col min="1" max="1" width="45.5546875" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="5" width="94.44140625" customWidth="1"/>
+    <col min="4" max="4" width="112.88671875" customWidth="1"/>
+    <col min="5" max="5" width="94.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -1302,52 +1437,112 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43410</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/atcoder_record.xlsx
+++ b/atcoder_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuro/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{219590AB-09C8-45C0-B14D-26A5C44E1000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B3B2E6-439E-A645-8DA3-884B340261E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7860" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>アリ本 atcoder</t>
     <phoneticPr fontId="1"/>
@@ -723,6 +723,44 @@
     </rPh>
     <rPh sb="86" eb="87">
       <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t or k が出てきたら5文字確認してtokyo or kyotoになればrsl++ 違ければ一文字先を読む</t>
+    <rPh sb="0" eb="1">
+      <t>デテキタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解けない</t>
+    <rPh sb="0" eb="1">
+      <t>トケナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間を昇順でソート、(一個前の終了時間) &gt; 開始時間のときは同じ橋を取り除くことで要件を満たせる</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書最小を出力するから、後ろから部分列と一致しているかを確認する　残りの?にはaを入れればおk</t>
+    <rPh sb="0" eb="2">
+      <t>ジショサイショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書最小はaだから、aを出力すれば良い、ただし入力がaのときは-1を出力</t>
+    <rPh sb="0" eb="1">
+      <t>ジショサイショウ</t>
+    </rPh>
+    <rPh sb="611" eb="613">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -731,7 +769,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +846,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,25 +1167,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B463E-C599-7B47-BA2D-3487FF134AE3}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="112.88671875" customWidth="1"/>
-    <col min="5" max="5" width="94.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="112.85546875" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +1381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1354,7 +1395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +1409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1382,7 +1423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1408,7 +1449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1436,7 +1477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1450,7 +1491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1464,39 +1505,63 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43410</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43410</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43410</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -1504,7 +1569,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1512,7 +1577,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -1520,7 +1585,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -1528,7 +1593,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -1536,7 +1601,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>

--- a/atcoder_record.xlsx
+++ b/atcoder_record.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B3B2E6-439E-A645-8DA3-884B340261E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:120000_{EEF27A81-313C-436E-8206-638F0B55F80B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
+    <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="17535" xr2:uid="{1E05FC13-3E1B-F743-9EFE-43F925C35A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>アリ本 atcoder</t>
     <phoneticPr fontId="1"/>
@@ -757,10 +758,142 @@
   <si>
     <t>辞書最小はaだから、aを出力すれば良い、ただし入力がaのときは-1を出力</t>
     <rPh sb="0" eb="1">
-      <t>ジショサイショウ</t>
-    </rPh>
-    <rPh sb="611" eb="613">
+      <t>ジショサイショウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xに2をかけ続けた時が最大長配列　long longを使っていたからpowではなくpowlを使わないとテストケース6でWAをはいてしまう</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段ボールの一番上をvectorで保持, 置けるところがあれば一番上を更新, 置けなければ末尾にその段ボールを挿入, 最後にvectorのサイズを出力</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客iがもらえるたこ焼きjを二重ループで探す　もらえない客が出たらno、全員もらえたらyesを出力</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解けない</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貪欲法、最適解を求める解法を考えるのむずかしい。。。</t>
+    <rPh sb="0" eb="2">
+      <t>ドンヨク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -769,7 +902,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1168,24 +1301,24 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="112.85546875" customWidth="1"/>
-    <col min="5" max="5" width="94.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="113.5546875" customWidth="1"/>
+    <col min="5" max="5" width="94.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,7 +1402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +1430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1325,7 +1458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1423,7 +1556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1449,7 +1582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1463,7 +1596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1477,7 +1610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1505,7 +1638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1519,7 +1652,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1533,7 +1666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1547,7 +1680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1561,31 +1694,49 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -1593,15 +1744,21 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43411</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
